--- a/Build_Query_Challenge_2_Data.xlsx
+++ b/Build_Query_Challenge_2_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b2883e915511a7e/Documents/Swinburne/Teaching/2020/DAD_Online/ASSESSMENTS/Build_Query_Challenge_Resit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agamsingh/Desktop/DBS1_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{37B0031C-5ACF-5243-9A30-63D2BB941CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A12BBAF-0E38-304E-981C-1305E5708D19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8BA63C-9E39-4E4E-92BD-43B4862205A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="460" windowWidth="21260" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="500" windowWidth="21260" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data 3NF" sheetId="2" r:id="rId1"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
